--- a/SP_Sklad/Rep/RepMatSelPr.xlsx
+++ b/SP_Sklad/Rep/RepMatSelPr.xlsx
@@ -9,10 +9,10 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$N$14</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$N$33</definedName>
     <definedName name="MatList">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
-    <definedName name="sectionPrice">Лист1!$A$23:$N$23</definedName>
+    <definedName name="sectionPrice">Лист1!$A$42:$N$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$10:$10</definedName>
   </definedNames>
   <calcPr/>
@@ -73,16 +73,70 @@
     <t>Яловичина</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Яловичина 2с.</t>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яловичина  1 сотру</t>
   </si>
   <si>
     <t>кг.</t>
   </si>
   <si>
     <t>Разом по катогорії:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допоміжні матеріали </t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Емульсія свинної шкури</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилка </t>
+  </si>
+  <si>
+    <t>Свинина</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Свинина не жирна</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Свинина напівжирна 50/50</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Свинина жирна</t>
+  </si>
+  <si>
+    <t>Сало та жири</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Сало хребтове</t>
+  </si>
+  <si>
+    <t>Конина</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Мясо конини вищого сорту</t>
   </si>
   <si>
     <t>Всього по відомості:</t>
@@ -1052,8 +1106,8 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f>CONCATENATE("з "&amp;"01.09.2016"," по "&amp;"30.09.2016")</f>
-        <v>з 01.09.2016 по 30.09.2016</v>
+        <f>CONCATENATE("з "&amp;"01.09.2015"," по "&amp;"30.09.2016")</f>
+        <v>з 01.09.2015 по 30.09.2016</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1244,26 +1298,26 @@
         <v>19</v>
       </c>
       <c r="H13" s="39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I13" s="38">
-        <v>2</v>
+        <v>18.5</v>
       </c>
       <c r="J13" s="38">
-        <v>112</v>
+        <v>307.80000000000001</v>
       </c>
       <c r="K13" s="38">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L13" s="38">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="M13" s="38">
         <f>I13-K13</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N13" s="38">
-        <v>110</v>
+        <v>86.799999999999997</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1279,126 +1333,591 @@
       <c r="I14" s="41"/>
       <c r="J14" s="42">
         <f>SUM(J13)</f>
-        <v>112</v>
+        <v>307.80000000000001</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="42">
         <f>SUM(L13)</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="M14" s="42"/>
       <c r="N14" s="42">
         <f>SUM(N13)</f>
-        <v>110</v>
+        <v>86.799999999999997</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53">
-        <v>112</v>
-      </c>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="B17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="39">
+        <v>1</v>
+      </c>
+      <c r="I17" s="38">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38">
+        <v>6</v>
+      </c>
+      <c r="K17" s="38">
         <v>0</v>
       </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="54">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
+      <c r="L17" s="38">
+        <v>0</v>
+      </c>
+      <c r="M17" s="38">
+        <f>I17-K17</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="38">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
+      <c r="B18" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="39">
+        <v>1</v>
+      </c>
+      <c r="I18" s="38">
+        <v>1</v>
+      </c>
+      <c r="J18" s="38">
+        <v>7</v>
+      </c>
+      <c r="K18" s="38">
+        <v>0</v>
+      </c>
+      <c r="L18" s="38">
+        <v>0</v>
+      </c>
+      <c r="M18" s="38">
+        <f>I18-K18</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="B19" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42">
+        <f>SUM(J17:J18)</f>
+        <v>13</v>
+      </c>
+      <c r="K19" s="41"/>
+      <c r="L19" s="42">
+        <f>SUM(L17:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42">
+        <f>SUM(N17:N18)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="B21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="33"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="B22" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="39">
+        <v>10</v>
+      </c>
+      <c r="I22" s="38">
+        <v>1</v>
+      </c>
+      <c r="J22" s="38">
+        <v>40</v>
+      </c>
+      <c r="K22" s="38">
+        <v>0</v>
+      </c>
+      <c r="L22" s="38">
+        <v>0</v>
+      </c>
+      <c r="M22" s="38">
+        <f>I22-K22</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="38">
+        <v>30</v>
+      </c>
+    </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
+      <c r="B23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="39">
+        <v>10</v>
+      </c>
+      <c r="I23" s="38">
+        <v>5</v>
+      </c>
+      <c r="J23" s="38">
+        <v>50</v>
+      </c>
+      <c r="K23" s="38">
+        <v>0</v>
+      </c>
+      <c r="L23" s="38">
+        <v>0</v>
+      </c>
+      <c r="M23" s="38">
+        <f>I23-K23</f>
+        <v>5</v>
+      </c>
+      <c r="N23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="B24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
+      <c r="I24" s="38">
+        <v>3</v>
+      </c>
+      <c r="J24" s="38">
+        <v>3.1800000000000002</v>
+      </c>
+      <c r="K24" s="38">
+        <v>0</v>
+      </c>
+      <c r="L24" s="38">
+        <v>0</v>
+      </c>
+      <c r="M24" s="38">
+        <f>I24-K24</f>
+        <v>3</v>
+      </c>
+      <c r="N24" s="38">
+        <v>0.17999999999999999</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="B25" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42">
+        <f>SUM(J22:J24)</f>
+        <v>93.180000000000007</v>
+      </c>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42">
+        <f>SUM(L22:L24)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42">
+        <f>SUM(N22:N24)</f>
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="30"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="B27" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="33"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="B28" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="39">
+        <v>1</v>
+      </c>
+      <c r="I28" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="38">
+        <v>2</v>
+      </c>
+      <c r="K28" s="38">
+        <v>0</v>
+      </c>
+      <c r="L28" s="38">
+        <v>0</v>
+      </c>
+      <c r="M28" s="38">
+        <f>I28-K28</f>
+        <v>0.5</v>
+      </c>
+      <c r="N28" s="38">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="B29" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42">
+        <f>SUM(J28)</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42">
+        <f>SUM(L28)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42">
+        <f>SUM(N28)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="B31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="33"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="B32" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="39">
+        <v>1</v>
+      </c>
+      <c r="I32" s="38">
+        <v>1</v>
+      </c>
+      <c r="J32" s="38">
+        <v>5</v>
+      </c>
+      <c r="K32" s="38">
+        <v>0</v>
+      </c>
+      <c r="L32" s="38">
+        <v>0</v>
+      </c>
+      <c r="M32" s="38">
+        <f>I32-K32</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="B33" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42">
+        <f>SUM(J32)</f>
+        <v>5</v>
+      </c>
+      <c r="K33" s="41"/>
+      <c r="L33" s="42">
+        <f>SUM(L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42">
+        <f>SUM(N32)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="B35" s="48"/>
+      <c r="C35" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="53">
+        <v>420.98000000000002</v>
+      </c>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53">
+        <v>81</v>
+      </c>
+      <c r="M35" s="53"/>
+      <c r="N35" s="54">
+        <v>133.47999999999999</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="59"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+    </row>
     <row r="38" ht="12.75" customHeight="1"/>
     <row r="39" ht="12.75" customHeight="1"/>
     <row r="40" ht="12.75" customHeight="1"/>
     <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+    </row>
     <row r="43" ht="12.75" customHeight="1"/>
     <row r="44" ht="12.75" customHeight="1"/>
     <row r="45" ht="12.75" customHeight="1"/>
@@ -1457,8 +1976,27 @@
     <row r="98" ht="12.75" customHeight="1"/>
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="23">
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="B1:N1"/>
@@ -1471,6 +2009,17 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.1965278" bottom="0.39375" header="0.5118055" footer="0.1965278"/>
